--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col9a3-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col9a3-Mag.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5236536666666667</v>
+        <v>0.2109803333333333</v>
       </c>
       <c r="H2">
-        <v>1.570961</v>
+        <v>0.632941</v>
       </c>
       <c r="I2">
-        <v>0.4357111753954365</v>
+        <v>0.2372796149188938</v>
       </c>
       <c r="J2">
-        <v>0.4357111753954365</v>
+        <v>0.2372796149188938</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09045733333333333</v>
+        <v>0.00535</v>
       </c>
       <c r="N2">
-        <v>0.271372</v>
+        <v>0.01605</v>
       </c>
       <c r="O2">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="P2">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="Q2">
-        <v>0.04736831427688889</v>
+        <v>0.001128744783333333</v>
       </c>
       <c r="R2">
-        <v>0.426314828492</v>
+        <v>0.01015870305</v>
       </c>
       <c r="S2">
-        <v>0.02503122304718159</v>
+        <v>0.0008522877396367145</v>
       </c>
       <c r="T2">
-        <v>0.02503122304718159</v>
+        <v>0.0008522877396367145</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5236536666666667</v>
+        <v>0.2109803333333333</v>
       </c>
       <c r="H3">
-        <v>1.570961</v>
+        <v>0.632941</v>
       </c>
       <c r="I3">
-        <v>0.4357111753954365</v>
+        <v>0.2372796149188938</v>
       </c>
       <c r="J3">
-        <v>0.4357111753954365</v>
+        <v>0.2372796149188938</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.452321</v>
       </c>
       <c r="O3">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="P3">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="Q3">
-        <v>0.7771580722756667</v>
+        <v>0.3131173895623333</v>
       </c>
       <c r="R3">
-        <v>6.994422650481001</v>
+        <v>2.818056506061</v>
       </c>
       <c r="S3">
-        <v>0.4106799523482548</v>
+        <v>0.2364273271792571</v>
       </c>
       <c r="T3">
-        <v>0.4106799523482548</v>
+        <v>0.2364273271792571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.26009</v>
       </c>
       <c r="I4">
-        <v>0.34949008600725</v>
+        <v>0.4723879002358022</v>
       </c>
       <c r="J4">
-        <v>0.34949008600725</v>
+        <v>0.4723879002358022</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09045733333333333</v>
+        <v>0.00535</v>
       </c>
       <c r="N4">
-        <v>0.271372</v>
+        <v>0.01605</v>
       </c>
       <c r="O4">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="P4">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="Q4">
-        <v>0.03799479372</v>
+        <v>0.0022471605</v>
       </c>
       <c r="R4">
-        <v>0.34195314348</v>
+        <v>0.0202244445</v>
       </c>
       <c r="S4">
-        <v>0.02007789744590925</v>
+        <v>0.00169677625219227</v>
       </c>
       <c r="T4">
-        <v>0.02007789744590926</v>
+        <v>0.00169677625219227</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.26009</v>
       </c>
       <c r="I5">
-        <v>0.34949008600725</v>
+        <v>0.4723879002358022</v>
       </c>
       <c r="J5">
-        <v>0.34949008600725</v>
+        <v>0.4723879002358022</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,22 +744,22 @@
         <v>4.452321</v>
       </c>
       <c r="O5">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="P5">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="Q5">
-        <v>0.62336946321</v>
+        <v>0.6233694632099999</v>
       </c>
       <c r="R5">
-        <v>5.61032516889</v>
+        <v>5.610325168889999</v>
       </c>
       <c r="S5">
-        <v>0.3294121885613407</v>
+        <v>0.4706911239836099</v>
       </c>
       <c r="T5">
-        <v>0.3294121885613407</v>
+        <v>0.4706911239836099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.774459</v>
       </c>
       <c r="I6">
-        <v>0.2147987385973136</v>
+        <v>0.2903324848453041</v>
       </c>
       <c r="J6">
-        <v>0.2147987385973136</v>
+        <v>0.2903324848453041</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.09045733333333333</v>
+        <v>0.00535</v>
       </c>
       <c r="N6">
-        <v>0.271372</v>
+        <v>0.01605</v>
       </c>
       <c r="O6">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="P6">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="Q6">
-        <v>0.023351831972</v>
+        <v>0.00138111855</v>
       </c>
       <c r="R6">
-        <v>0.210166487748</v>
+        <v>0.01243006695</v>
       </c>
       <c r="S6">
-        <v>0.01233999823668265</v>
+        <v>0.001042849034193251</v>
       </c>
       <c r="T6">
-        <v>0.01233999823668265</v>
+        <v>0.001042849034193251</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.774459</v>
       </c>
       <c r="I7">
-        <v>0.2147987385973136</v>
+        <v>0.2903324848453041</v>
       </c>
       <c r="J7">
-        <v>0.2147987385973136</v>
+        <v>0.2903324848453041</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>4.452321</v>
       </c>
       <c r="O7">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="P7">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="Q7">
-        <v>0.3831266743710001</v>
+        <v>0.383126674371</v>
       </c>
       <c r="R7">
         <v>3.448140069339</v>
       </c>
       <c r="S7">
-        <v>0.2024587403606309</v>
+        <v>0.2892896358111108</v>
       </c>
       <c r="T7">
-        <v>0.2024587403606309</v>
+        <v>0.2892896358111108</v>
       </c>
     </row>
   </sheetData>
